--- a/medicine/Pharmacie/Auguste_Chupin/Auguste_Chupin.xlsx
+++ b/medicine/Pharmacie/Auguste_Chupin/Auguste_Chupin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Auguste Chupin est un homme politique français né le 29 septembre 1919 à Chemillé (Maine-et-Loire) et décédé le 9 mars 2007 (à 87 ans) à Savennières (Maine-et-Loire), pharmacien de profession.
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mandats nationaux
-22/09/1974 - 24/09/1983 : Sénateur de Maine-et-Loire
+          <t>Mandats nationaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22/09/1974 - 24/09/1983 : Sénateur de Maine-et-Loire
 25/09/1983 - 01/10/1992 : Sénateur de Maine-et-Loire
-(Ne se représente pas).
-Mandats locaux
-Conseiller municipal d'Angers de 1953 à 1977, premier adjoint de 1965 à 1977
+(Ne se représente pas).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Auguste_Chupin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Chupin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mandats</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mandats locaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conseiller municipal d'Angers de 1953 à 1977, premier adjoint de 1965 à 1977
 Conseiller général du canton d'Angers-Sud de 1961 à 1979
 Conseiller régional des Pays de la Loire</t>
         </is>
